--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Il4ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H2">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.6544736357285</v>
+        <v>19.811086</v>
       </c>
       <c r="N2">
-        <v>14.6544736357285</v>
+        <v>59.433258</v>
       </c>
       <c r="O2">
-        <v>0.07595312000874788</v>
+        <v>0.09441578903081543</v>
       </c>
       <c r="P2">
-        <v>0.07595312000874788</v>
+        <v>0.09441578903081545</v>
       </c>
       <c r="Q2">
-        <v>9.558776115765545</v>
+        <v>3.263090578755333</v>
       </c>
       <c r="R2">
-        <v>9.558776115765545</v>
+        <v>29.367815208798</v>
       </c>
       <c r="S2">
-        <v>0.02351979255292648</v>
+        <v>0.005073150029211573</v>
       </c>
       <c r="T2">
-        <v>0.02351979255292648</v>
+        <v>0.005073150029211575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H3">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I3">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J3">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.2238206832573</v>
+        <v>39.01303799999999</v>
       </c>
       <c r="N3">
-        <v>38.2238206832573</v>
+        <v>117.039114</v>
       </c>
       <c r="O3">
-        <v>0.1981114103252455</v>
+        <v>0.1859285636970727</v>
       </c>
       <c r="P3">
-        <v>0.1981114103252455</v>
+        <v>0.1859285636970727</v>
       </c>
       <c r="Q3">
-        <v>24.93251912573805</v>
+        <v>6.425850493325998</v>
       </c>
       <c r="R3">
-        <v>24.93251912573805</v>
+        <v>57.83265443993399</v>
       </c>
       <c r="S3">
-        <v>0.06134756903575272</v>
+        <v>0.009990315264359168</v>
       </c>
       <c r="T3">
-        <v>0.06134756903575272</v>
+        <v>0.00999031526435917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H4">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I4">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J4">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.1845171360929</v>
+        <v>40.78703966666667</v>
       </c>
       <c r="N4">
-        <v>35.1845171360929</v>
+        <v>122.361119</v>
       </c>
       <c r="O4">
-        <v>0.1823589109316147</v>
+        <v>0.1943831111711645</v>
       </c>
       <c r="P4">
-        <v>0.1823589109316147</v>
+        <v>0.1943831111711645</v>
       </c>
       <c r="Q4">
-        <v>22.9500513225707</v>
+        <v>6.718046899176555</v>
       </c>
       <c r="R4">
-        <v>22.9500513225707</v>
+        <v>60.46242209258899</v>
       </c>
       <c r="S4">
-        <v>0.05646961908602553</v>
+        <v>0.01044459508562042</v>
       </c>
       <c r="T4">
-        <v>0.05646961908602553</v>
+        <v>0.01044459508562043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H5">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I5">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J5">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.9823062262488</v>
+        <v>46.46237433333334</v>
       </c>
       <c r="N5">
-        <v>44.9823062262488</v>
+        <v>139.387123</v>
       </c>
       <c r="O5">
-        <v>0.2331401719364914</v>
+        <v>0.2214306541764936</v>
       </c>
       <c r="P5">
-        <v>0.2331401719364914</v>
+        <v>0.2214306541764936</v>
       </c>
       <c r="Q5">
-        <v>29.34092380767683</v>
+        <v>7.652833163901445</v>
       </c>
       <c r="R5">
-        <v>29.34092380767683</v>
+        <v>68.87549847511301</v>
       </c>
       <c r="S5">
-        <v>0.07219464426304462</v>
+        <v>0.01189791391074619</v>
       </c>
       <c r="T5">
-        <v>0.07219464426304462</v>
+        <v>0.01189791391074619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H6">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I6">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J6">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.6238370473018</v>
+        <v>56.471095</v>
       </c>
       <c r="N6">
-        <v>53.6238370473018</v>
+        <v>169.413285</v>
       </c>
       <c r="O6">
-        <v>0.277928626563105</v>
+        <v>0.2691302734165677</v>
       </c>
       <c r="P6">
-        <v>0.277928626563105</v>
+        <v>0.2691302734165677</v>
       </c>
       <c r="Q6">
-        <v>34.9775956165191</v>
+        <v>9.301372881148332</v>
       </c>
       <c r="R6">
-        <v>34.9775956165191</v>
+        <v>83.71235593033499</v>
       </c>
       <c r="S6">
-        <v>0.08606392522823456</v>
+        <v>0.01446091028270028</v>
       </c>
       <c r="T6">
-        <v>0.08606392522823456</v>
+        <v>0.01446091028270028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H7">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I7">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J7">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.27208092653109</v>
+        <v>7.283471</v>
       </c>
       <c r="N7">
-        <v>6.27208092653109</v>
+        <v>21.850413</v>
       </c>
       <c r="O7">
-        <v>0.03250776023479553</v>
+        <v>0.03471160850788605</v>
       </c>
       <c r="P7">
-        <v>0.03250776023479553</v>
+        <v>0.03471160850788606</v>
       </c>
       <c r="Q7">
-        <v>4.091134137394326</v>
+        <v>1.199662936233667</v>
       </c>
       <c r="R7">
-        <v>4.091134137394326</v>
+        <v>10.796966426103</v>
       </c>
       <c r="S7">
-        <v>0.01006641698187782</v>
+        <v>0.001865124461950831</v>
       </c>
       <c r="T7">
-        <v>0.01006641698187782</v>
+        <v>0.001865124461950832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H8">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I8">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J8">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.6544736357285</v>
+        <v>19.811086</v>
       </c>
       <c r="N8">
-        <v>14.6544736357285</v>
+        <v>59.433258</v>
       </c>
       <c r="O8">
-        <v>0.07595312000874788</v>
+        <v>0.09441578903081543</v>
       </c>
       <c r="P8">
-        <v>0.07595312000874788</v>
+        <v>0.09441578903081545</v>
       </c>
       <c r="Q8">
-        <v>3.864525233293989</v>
+        <v>13.43813038530866</v>
       </c>
       <c r="R8">
-        <v>3.864525233293989</v>
+        <v>120.943173467778</v>
       </c>
       <c r="S8">
-        <v>0.009508835723509882</v>
+        <v>0.02089235646740202</v>
       </c>
       <c r="T8">
-        <v>0.009508835723509882</v>
+        <v>0.02089235646740203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H9">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I9">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J9">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.2238206832573</v>
+        <v>39.01303799999999</v>
       </c>
       <c r="N9">
-        <v>38.2238206832573</v>
+        <v>117.039114</v>
       </c>
       <c r="O9">
-        <v>0.1981114103252455</v>
+        <v>0.1859285636970727</v>
       </c>
       <c r="P9">
-        <v>0.1981114103252455</v>
+        <v>0.1859285636970727</v>
       </c>
       <c r="Q9">
-        <v>10.07998807839878</v>
+        <v>26.46307685358599</v>
       </c>
       <c r="R9">
-        <v>10.07998807839878</v>
+        <v>238.167691682274</v>
       </c>
       <c r="S9">
-        <v>0.02480225770210166</v>
+        <v>0.0411423329731798</v>
       </c>
       <c r="T9">
-        <v>0.02480225770210166</v>
+        <v>0.04114233297317981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H10">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I10">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J10">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.1845171360929</v>
+        <v>40.78703966666667</v>
       </c>
       <c r="N10">
-        <v>35.1845171360929</v>
+        <v>122.361119</v>
       </c>
       <c r="O10">
-        <v>0.1823589109316147</v>
+        <v>0.1943831111711645</v>
       </c>
       <c r="P10">
-        <v>0.1823589109316147</v>
+        <v>0.1943831111711645</v>
       </c>
       <c r="Q10">
-        <v>9.278494586266753</v>
+        <v>27.66640642877544</v>
       </c>
       <c r="R10">
-        <v>9.278494586266753</v>
+        <v>248.997657858979</v>
       </c>
       <c r="S10">
-        <v>0.02283014741945005</v>
+        <v>0.0430131579846792</v>
       </c>
       <c r="T10">
-        <v>0.02283014741945005</v>
+        <v>0.0430131579846792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H11">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I11">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J11">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>44.9823062262488</v>
+        <v>46.46237433333334</v>
       </c>
       <c r="N11">
-        <v>44.9823062262488</v>
+        <v>139.387123</v>
       </c>
       <c r="O11">
-        <v>0.2331401719364914</v>
+        <v>0.2214306541764936</v>
       </c>
       <c r="P11">
-        <v>0.2331401719364914</v>
+        <v>0.2214306541764936</v>
       </c>
       <c r="Q11">
-        <v>11.86226552957008</v>
+        <v>31.51606349608256</v>
       </c>
       <c r="R11">
-        <v>11.86226552957008</v>
+        <v>283.644571464743</v>
       </c>
       <c r="S11">
-        <v>0.02918763041254415</v>
+        <v>0.04899824708720515</v>
       </c>
       <c r="T11">
-        <v>0.02918763041254415</v>
+        <v>0.04899824708720515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H12">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I12">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J12">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.6238370473018</v>
+        <v>56.471095</v>
       </c>
       <c r="N12">
-        <v>53.6238370473018</v>
+        <v>169.413285</v>
       </c>
       <c r="O12">
-        <v>0.277928626563105</v>
+        <v>0.2691302734165677</v>
       </c>
       <c r="P12">
-        <v>0.277928626563105</v>
+        <v>0.2691302734165677</v>
       </c>
       <c r="Q12">
-        <v>14.14112007886123</v>
+        <v>38.30511551013166</v>
       </c>
       <c r="R12">
-        <v>14.14112007886123</v>
+        <v>344.746039591185</v>
       </c>
       <c r="S12">
-        <v>0.03479485309550034</v>
+        <v>0.05955323432771551</v>
       </c>
       <c r="T12">
-        <v>0.03479485309550034</v>
+        <v>0.05955323432771551</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H13">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I13">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J13">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.27208092653109</v>
+        <v>7.283471</v>
       </c>
       <c r="N13">
-        <v>6.27208092653109</v>
+        <v>21.850413</v>
       </c>
       <c r="O13">
-        <v>0.03250776023479553</v>
+        <v>0.03471160850788605</v>
       </c>
       <c r="P13">
-        <v>0.03250776023479553</v>
+        <v>0.03471160850788606</v>
       </c>
       <c r="Q13">
-        <v>1.654007889218628</v>
+        <v>4.940477920070332</v>
       </c>
       <c r="R13">
-        <v>1.654007889218628</v>
+        <v>44.46430128063299</v>
       </c>
       <c r="S13">
-        <v>0.00406975976465899</v>
+        <v>0.007680996006578593</v>
       </c>
       <c r="T13">
-        <v>0.00406975976465899</v>
+        <v>0.007680996006578594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H14">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I14">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J14">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.6544736357285</v>
+        <v>19.811086</v>
       </c>
       <c r="N14">
-        <v>14.6544736357285</v>
+        <v>59.433258</v>
       </c>
       <c r="O14">
-        <v>0.07595312000874788</v>
+        <v>0.09441578903081543</v>
       </c>
       <c r="P14">
-        <v>0.07595312000874788</v>
+        <v>0.09441578903081545</v>
       </c>
       <c r="Q14">
-        <v>17.44512012292991</v>
+        <v>6.578462613464668</v>
       </c>
       <c r="R14">
-        <v>17.44512012292991</v>
+        <v>59.20616352118201</v>
       </c>
       <c r="S14">
-        <v>0.04292449173231151</v>
+        <v>0.01022758240820745</v>
       </c>
       <c r="T14">
-        <v>0.04292449173231151</v>
+        <v>0.01022758240820745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H15">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I15">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J15">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.2238206832573</v>
+        <v>39.01303799999999</v>
       </c>
       <c r="N15">
-        <v>38.2238206832573</v>
+        <v>117.039114</v>
       </c>
       <c r="O15">
-        <v>0.1981114103252455</v>
+        <v>0.1859285636970727</v>
       </c>
       <c r="P15">
-        <v>0.1981114103252455</v>
+        <v>0.1859285636970727</v>
       </c>
       <c r="Q15">
-        <v>45.50277000403554</v>
+        <v>12.954656393934</v>
       </c>
       <c r="R15">
-        <v>45.50277000403554</v>
+        <v>116.591907545406</v>
       </c>
       <c r="S15">
-        <v>0.1119615835873911</v>
+        <v>0.02014069602946193</v>
       </c>
       <c r="T15">
-        <v>0.1119615835873911</v>
+        <v>0.02014069602946193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H16">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I16">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J16">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.1845171360929</v>
+        <v>40.78703966666667</v>
       </c>
       <c r="N16">
-        <v>35.1845171360929</v>
+        <v>122.361119</v>
       </c>
       <c r="O16">
-        <v>0.1823589109316147</v>
+        <v>0.1943831111711645</v>
       </c>
       <c r="P16">
-        <v>0.1823589109316147</v>
+        <v>0.1943831111711645</v>
       </c>
       <c r="Q16">
-        <v>41.88469290428482</v>
+        <v>13.54373079603345</v>
       </c>
       <c r="R16">
-        <v>41.88469290428482</v>
+        <v>121.893577164301</v>
       </c>
       <c r="S16">
-        <v>0.1030591444261392</v>
+        <v>0.02105653417372776</v>
       </c>
       <c r="T16">
-        <v>0.1030591444261392</v>
+        <v>0.02105653417372776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H17">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I17">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J17">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.9823062262488</v>
+        <v>46.46237433333334</v>
       </c>
       <c r="N17">
-        <v>44.9823062262488</v>
+        <v>139.387123</v>
       </c>
       <c r="O17">
-        <v>0.2331401719364914</v>
+        <v>0.2214306541764936</v>
       </c>
       <c r="P17">
-        <v>0.2331401719364914</v>
+        <v>0.2214306541764936</v>
       </c>
       <c r="Q17">
-        <v>53.54827167658406</v>
+        <v>15.42828053366856</v>
       </c>
       <c r="R17">
-        <v>53.54827167658406</v>
+        <v>138.854524803017</v>
       </c>
       <c r="S17">
-        <v>0.1317578972609026</v>
+        <v>0.02398645699560082</v>
       </c>
       <c r="T17">
-        <v>0.1317578972609026</v>
+        <v>0.02398645699560082</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.19042966377159</v>
+        <v>0.3320596666666667</v>
       </c>
       <c r="H18">
-        <v>1.19042966377159</v>
+        <v>0.996179</v>
       </c>
       <c r="I18">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="J18">
-        <v>0.5651445487343731</v>
+        <v>0.1083249159191941</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.6238370473018</v>
+        <v>56.471095</v>
       </c>
       <c r="N18">
-        <v>53.6238370473018</v>
+        <v>169.413285</v>
       </c>
       <c r="O18">
-        <v>0.277928626563105</v>
+        <v>0.2691302734165677</v>
       </c>
       <c r="P18">
-        <v>0.277928626563105</v>
+        <v>0.2691302734165677</v>
       </c>
       <c r="Q18">
-        <v>63.83540630636202</v>
+        <v>18.75177298200167</v>
       </c>
       <c r="R18">
-        <v>63.83540630636202</v>
+        <v>168.765956838015</v>
       </c>
       <c r="S18">
-        <v>0.1570698482393701</v>
+        <v>0.02915351423915942</v>
       </c>
       <c r="T18">
-        <v>0.1570698482393701</v>
+        <v>0.02915351423915942</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3320596666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.996179</v>
+      </c>
+      <c r="I19">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="J19">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.283471</v>
+      </c>
+      <c r="N19">
+        <v>21.850413</v>
+      </c>
+      <c r="O19">
+        <v>0.03471160850788605</v>
+      </c>
+      <c r="P19">
+        <v>0.03471160850788606</v>
+      </c>
+      <c r="Q19">
+        <v>2.418546952436333</v>
+      </c>
+      <c r="R19">
+        <v>21.766922571927</v>
+      </c>
+      <c r="S19">
+        <v>0.00376013207303674</v>
+      </c>
+      <c r="T19">
+        <v>0.003760132073036741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.272073</v>
+      </c>
+      <c r="H20">
+        <v>0.816219</v>
+      </c>
+      <c r="I20">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J20">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.811086</v>
+      </c>
+      <c r="N20">
+        <v>59.433258</v>
+      </c>
+      <c r="O20">
+        <v>0.09441578903081543</v>
+      </c>
+      <c r="P20">
+        <v>0.09441578903081545</v>
+      </c>
+      <c r="Q20">
+        <v>5.390061601278</v>
+      </c>
+      <c r="R20">
+        <v>48.51055441150201</v>
+      </c>
+      <c r="S20">
+        <v>0.008379966939319821</v>
+      </c>
+      <c r="T20">
+        <v>0.008379966939319821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.272073</v>
+      </c>
+      <c r="H21">
+        <v>0.816219</v>
+      </c>
+      <c r="I21">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J21">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>39.01303799999999</v>
+      </c>
+      <c r="N21">
+        <v>117.039114</v>
+      </c>
+      <c r="O21">
+        <v>0.1859285636970727</v>
+      </c>
+      <c r="P21">
+        <v>0.1859285636970727</v>
+      </c>
+      <c r="Q21">
+        <v>10.614394287774</v>
+      </c>
+      <c r="R21">
+        <v>95.52954858996598</v>
+      </c>
+      <c r="S21">
+        <v>0.01650227396127743</v>
+      </c>
+      <c r="T21">
+        <v>0.01650227396127743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.272073</v>
+      </c>
+      <c r="H22">
+        <v>0.816219</v>
+      </c>
+      <c r="I22">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J22">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>40.78703966666667</v>
+      </c>
+      <c r="N22">
+        <v>122.361119</v>
+      </c>
+      <c r="O22">
+        <v>0.1943831111711645</v>
+      </c>
+      <c r="P22">
+        <v>0.1943831111711645</v>
+      </c>
+      <c r="Q22">
+        <v>11.097052243229</v>
+      </c>
+      <c r="R22">
+        <v>99.873470189061</v>
+      </c>
+      <c r="S22">
+        <v>0.01725266570239475</v>
+      </c>
+      <c r="T22">
+        <v>0.01725266570239475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.272073</v>
+      </c>
+      <c r="H23">
+        <v>0.816219</v>
+      </c>
+      <c r="I23">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J23">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>46.46237433333334</v>
+      </c>
+      <c r="N23">
+        <v>139.387123</v>
+      </c>
+      <c r="O23">
+        <v>0.2214306541764936</v>
+      </c>
+      <c r="P23">
+        <v>0.2214306541764936</v>
+      </c>
+      <c r="Q23">
+        <v>12.641157571993</v>
+      </c>
+      <c r="R23">
+        <v>113.770418147937</v>
+      </c>
+      <c r="S23">
+        <v>0.01965329719105935</v>
+      </c>
+      <c r="T23">
+        <v>0.01965329719105935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.272073</v>
+      </c>
+      <c r="H24">
+        <v>0.816219</v>
+      </c>
+      <c r="I24">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J24">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>56.471095</v>
+      </c>
+      <c r="N24">
+        <v>169.413285</v>
+      </c>
+      <c r="O24">
+        <v>0.2691302734165677</v>
+      </c>
+      <c r="P24">
+        <v>0.2691302734165677</v>
+      </c>
+      <c r="Q24">
+        <v>15.364260229935</v>
+      </c>
+      <c r="R24">
+        <v>138.278342069415</v>
+      </c>
+      <c r="S24">
+        <v>0.02388692417604915</v>
+      </c>
+      <c r="T24">
+        <v>0.02388692417604915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.272073</v>
+      </c>
+      <c r="H25">
+        <v>0.816219</v>
+      </c>
+      <c r="I25">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J25">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.283471</v>
+      </c>
+      <c r="N25">
+        <v>21.850413</v>
+      </c>
+      <c r="O25">
+        <v>0.03471160850788605</v>
+      </c>
+      <c r="P25">
+        <v>0.03471160850788606</v>
+      </c>
+      <c r="Q25">
+        <v>1.981635805383</v>
+      </c>
+      <c r="R25">
+        <v>17.834722248447</v>
+      </c>
+      <c r="S25">
+        <v>0.00308086321888132</v>
+      </c>
+      <c r="T25">
+        <v>0.003080863218881321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.767429</v>
+      </c>
+      <c r="I26">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J26">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.811086</v>
+      </c>
+      <c r="N26">
+        <v>59.433258</v>
+      </c>
+      <c r="O26">
+        <v>0.09441578903081543</v>
+      </c>
+      <c r="P26">
+        <v>0.09441578903081545</v>
+      </c>
+      <c r="Q26">
+        <v>5.067867305964667</v>
+      </c>
+      <c r="R26">
+        <v>45.610805753682</v>
+      </c>
+      <c r="S26">
+        <v>0.007879049186891349</v>
+      </c>
+      <c r="T26">
+        <v>0.007879049186891352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.767429</v>
+      </c>
+      <c r="I27">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J27">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>39.01303799999999</v>
+      </c>
+      <c r="N27">
+        <v>117.039114</v>
+      </c>
+      <c r="O27">
+        <v>0.1859285636970727</v>
+      </c>
+      <c r="P27">
+        <v>0.1859285636970727</v>
+      </c>
+      <c r="Q27">
+        <v>9.979912246433999</v>
+      </c>
+      <c r="R27">
+        <v>89.81921021790599</v>
+      </c>
+      <c r="S27">
+        <v>0.01551584023874619</v>
+      </c>
+      <c r="T27">
+        <v>0.01551584023874619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="H19">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="I19">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="J19">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.27208092653109</v>
-      </c>
-      <c r="N19">
-        <v>6.27208092653109</v>
-      </c>
-      <c r="O19">
-        <v>0.03250776023479553</v>
-      </c>
-      <c r="P19">
-        <v>0.03250776023479553</v>
-      </c>
-      <c r="Q19">
-        <v>7.466471188518609</v>
-      </c>
-      <c r="R19">
-        <v>7.466471188518609</v>
-      </c>
-      <c r="S19">
-        <v>0.01837158348825872</v>
-      </c>
-      <c r="T19">
-        <v>0.01837158348825872</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.767429</v>
+      </c>
+      <c r="I28">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J28">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>40.78703966666667</v>
+      </c>
+      <c r="N28">
+        <v>122.361119</v>
+      </c>
+      <c r="O28">
+        <v>0.1943831111711645</v>
+      </c>
+      <c r="P28">
+        <v>0.1943831111711645</v>
+      </c>
+      <c r="Q28">
+        <v>10.43371902145011</v>
+      </c>
+      <c r="R28">
+        <v>93.90347119305099</v>
+      </c>
+      <c r="S28">
+        <v>0.01622137684533575</v>
+      </c>
+      <c r="T28">
+        <v>0.01622137684533575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.767429</v>
+      </c>
+      <c r="I29">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J29">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>46.46237433333334</v>
+      </c>
+      <c r="N29">
+        <v>139.387123</v>
+      </c>
+      <c r="O29">
+        <v>0.2214306541764936</v>
+      </c>
+      <c r="P29">
+        <v>0.2214306541764936</v>
+      </c>
+      <c r="Q29">
+        <v>11.88552449075189</v>
+      </c>
+      <c r="R29">
+        <v>106.969720416767</v>
+      </c>
+      <c r="S29">
+        <v>0.01847850908890565</v>
+      </c>
+      <c r="T29">
+        <v>0.01847850908890565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.767429</v>
+      </c>
+      <c r="I30">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J30">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>56.471095</v>
+      </c>
+      <c r="N30">
+        <v>169.413285</v>
+      </c>
+      <c r="O30">
+        <v>0.2691302734165677</v>
+      </c>
+      <c r="P30">
+        <v>0.2691302734165677</v>
+      </c>
+      <c r="Q30">
+        <v>14.44585198825167</v>
+      </c>
+      <c r="R30">
+        <v>130.012667894265</v>
+      </c>
+      <c r="S30">
+        <v>0.02245906837932126</v>
+      </c>
+      <c r="T30">
+        <v>0.02245906837932126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.767429</v>
+      </c>
+      <c r="I31">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J31">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.283471</v>
+      </c>
+      <c r="N31">
+        <v>21.850413</v>
+      </c>
+      <c r="O31">
+        <v>0.03471160850788605</v>
+      </c>
+      <c r="P31">
+        <v>0.03471160850788606</v>
+      </c>
+      <c r="Q31">
+        <v>1.863182288686333</v>
+      </c>
+      <c r="R31">
+        <v>16.768640598177</v>
+      </c>
+      <c r="S31">
+        <v>0.002896702697686372</v>
+      </c>
+      <c r="T31">
+        <v>0.002896702697686373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.362438</v>
+      </c>
+      <c r="H32">
+        <v>4.087314</v>
+      </c>
+      <c r="I32">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J32">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>19.811086</v>
+      </c>
+      <c r="N32">
+        <v>59.433258</v>
+      </c>
+      <c r="O32">
+        <v>0.09441578903081543</v>
+      </c>
+      <c r="P32">
+        <v>0.09441578903081545</v>
+      </c>
+      <c r="Q32">
+        <v>26.991376387668</v>
+      </c>
+      <c r="R32">
+        <v>242.922387489012</v>
+      </c>
+      <c r="S32">
+        <v>0.04196368399978321</v>
+      </c>
+      <c r="T32">
+        <v>0.04196368399978322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.362438</v>
+      </c>
+      <c r="H33">
+        <v>4.087314</v>
+      </c>
+      <c r="I33">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J33">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>39.01303799999999</v>
+      </c>
+      <c r="N33">
+        <v>117.039114</v>
+      </c>
+      <c r="O33">
+        <v>0.1859285636970727</v>
+      </c>
+      <c r="P33">
+        <v>0.1859285636970727</v>
+      </c>
+      <c r="Q33">
+        <v>53.152845466644</v>
+      </c>
+      <c r="R33">
+        <v>478.375609199796</v>
+      </c>
+      <c r="S33">
+        <v>0.08263710523004816</v>
+      </c>
+      <c r="T33">
+        <v>0.08263710523004818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.362438</v>
+      </c>
+      <c r="H34">
+        <v>4.087314</v>
+      </c>
+      <c r="I34">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J34">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>40.78703966666667</v>
+      </c>
+      <c r="N34">
+        <v>122.361119</v>
+      </c>
+      <c r="O34">
+        <v>0.1943831111711645</v>
+      </c>
+      <c r="P34">
+        <v>0.1943831111711645</v>
+      </c>
+      <c r="Q34">
+        <v>55.569812749374</v>
+      </c>
+      <c r="R34">
+        <v>500.128314744366</v>
+      </c>
+      <c r="S34">
+        <v>0.08639478137940661</v>
+      </c>
+      <c r="T34">
+        <v>0.08639478137940661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.362438</v>
+      </c>
+      <c r="H35">
+        <v>4.087314</v>
+      </c>
+      <c r="I35">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J35">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>46.46237433333334</v>
+      </c>
+      <c r="N35">
+        <v>139.387123</v>
+      </c>
+      <c r="O35">
+        <v>0.2214306541764936</v>
+      </c>
+      <c r="P35">
+        <v>0.2214306541764936</v>
+      </c>
+      <c r="Q35">
+        <v>63.30210436195801</v>
+      </c>
+      <c r="R35">
+        <v>569.7189392576221</v>
+      </c>
+      <c r="S35">
+        <v>0.09841622990297645</v>
+      </c>
+      <c r="T35">
+        <v>0.09841622990297645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.362438</v>
+      </c>
+      <c r="H36">
+        <v>4.087314</v>
+      </c>
+      <c r="I36">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J36">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>56.471095</v>
+      </c>
+      <c r="N36">
+        <v>169.413285</v>
+      </c>
+      <c r="O36">
+        <v>0.2691302734165677</v>
+      </c>
+      <c r="P36">
+        <v>0.2691302734165677</v>
+      </c>
+      <c r="Q36">
+        <v>76.93836572961</v>
+      </c>
+      <c r="R36">
+        <v>692.44529156649</v>
+      </c>
+      <c r="S36">
+        <v>0.1196166220116221</v>
+      </c>
+      <c r="T36">
+        <v>0.1196166220116221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.362438</v>
+      </c>
+      <c r="H37">
+        <v>4.087314</v>
+      </c>
+      <c r="I37">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J37">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.283471</v>
+      </c>
+      <c r="N37">
+        <v>21.850413</v>
+      </c>
+      <c r="O37">
+        <v>0.03471160850788605</v>
+      </c>
+      <c r="P37">
+        <v>0.03471160850788606</v>
+      </c>
+      <c r="Q37">
+        <v>9.923277662298</v>
+      </c>
+      <c r="R37">
+        <v>89.30949896068201</v>
+      </c>
+      <c r="S37">
+        <v>0.01542779004975219</v>
+      </c>
+      <c r="T37">
+        <v>0.0154277900497522</v>
       </c>
     </row>
   </sheetData>
